--- a/BOM - Input.xlsx
+++ b/BOM - Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenny\Documents\Senior Design\Input board schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D168B060-89EE-40B2-B7AD-27C2B726D64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEE0B7-2DBE-411F-B612-2871D8923C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4668" yWindow="1356" windowWidth="13956" windowHeight="7692" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16008" yWindow="8328" windowWidth="13956" windowHeight="7692" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -105,15 +102,6 @@
     <t>https://www.digikey.com/product-detail/en/nichicon/UVK2GR47MED1TD/493-12648-3-ND/4328849</t>
   </si>
   <si>
-    <t>*Discount prices are available for the</t>
-  </si>
-  <si>
-    <t>*Components at 10, 25, 50, 100, etc.</t>
-  </si>
-  <si>
-    <t>*for everything but the Adafruit board</t>
-  </si>
-  <si>
     <t>Yageo FMP200JR-52-220R</t>
   </si>
   <si>
@@ -121,6 +109,81 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/yageo/FMP200JR-52-220R/220ZCT-ND/2058986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE Connectivity 640454-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN HEADER VERT 6POS 2.54MM </t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640454-6/A19433-ND/258988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sullin’s Connector Solutions SWH25X-NULC-S06-UU-BA </t>
+  </si>
+  <si>
+    <t>CONN HOUSING 6POS .100 W/CRIMP</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/SWH25X-NULC-S06-UU-BA/S9436-ND/2411481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Tech MTS-02 </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/adam-tech/MTS-02/2057-MTS-02-ND/9830694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE Connectivity 640456-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN HEADER VERT 2POS 2.54MM </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640456-2/A1921-ND/109003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN HOUSING 2POS 2.54MM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE Connectivity 640456-5 </t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 5POS 2.54MM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640456-5/A19471-ND/259011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pololu Corporation 1904 </t>
+  </si>
+  <si>
+    <t>1X5POS 10PK 2.54MM CONN HOUSING</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/products/en/connectors-interconnects/rectangular-connectors-housings/319?k=&amp;pkeyword=&amp;sv=0&amp;pv88=229001&amp;pv2172=i1&amp;pv563=9726&amp;sf=1&amp;FV=-8%7C319&amp;quantity=&amp;ColumnSort=0&amp;page=1&amp;pageSize=25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bournes CDSOT23-SM712 </t>
+  </si>
+  <si>
+    <t>Bournes TVS-Diode</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/bourns-inc/CDSOT23-SM712/CDSOT23-SM712CT-ND/1630607</t>
+  </si>
+  <si>
+    <t>DIODE GEN PURP 400V 1A T1</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated D4G-T</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/diodes-incorporated/D4G-T/D4G-TDICT-ND/8283848</t>
   </si>
 </sst>
 </file>
@@ -189,13 +252,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -566,11 +634,11 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E7" si="0">_xlfn.CEILING.MATH(3*D2)</f>
+        <f t="shared" ref="E2:F15" si="0">_xlfn.CEILING.MATH(3*D2)</f>
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F7" si="1">C2*D2</f>
+        <f t="shared" ref="F2:F12" si="1">C2*D2</f>
         <v>2.65</v>
       </c>
       <c r="G2" t="s">
@@ -610,10 +678,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>0.34</v>
@@ -633,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -721,39 +789,237 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="4" t="s">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="7">
+        <f>C12*D12</f>
+        <v>3.1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="7">
+        <f>C13*D13</f>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.53</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14:F15" si="2">C14*D14</f>
+        <v>1.53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="e">
-        <f>#REF!+F2+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+F3+F4+F5+F6+F7</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>26</v>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="7">
+        <f>SUM(F2:F15)</f>
+        <v>46.62</v>
       </c>
     </row>
   </sheetData>
@@ -762,6 +1028,14 @@
     <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="H4" r:id="rId3" xr:uid="{5C7FC4F3-706F-4CE1-805E-D3A30C1ABAF6}"/>
     <hyperlink ref="H7" r:id="rId4" xr:uid="{7D06814D-8DA6-411A-B94E-03E7D08AE8AB}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{1990B8ED-E572-41CB-A4A1-1363DBC0341D}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{FCE19420-72F5-4136-9279-DFEC2D2B6568}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{CC629338-645C-406D-BD7E-C4C9E4EF95C5}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{B24CC0DF-F335-4A4B-974B-9EA891558532}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{FFD98EFF-0715-44AA-9193-6E34BCA3EC93}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{C3F7F823-E167-44D3-869E-E88F2B5DC7C4}"/>
+    <hyperlink ref="H14" r:id="rId11" xr:uid="{D5D585CF-FD65-4056-8C52-7969DAA3F20D}"/>
+    <hyperlink ref="H15" r:id="rId12" xr:uid="{18B5C03A-9F6D-43F1-9BD4-0A4B7BF5971E}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/BOM - Input.xlsx
+++ b/BOM - Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenny\Documents\Senior Design\Input board schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEE0B7-2DBE-411F-B612-2871D8923C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5606ACA0-DBC2-495A-9CE7-36B4B0ECFC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16008" yWindow="8328" windowWidth="13956" windowHeight="7692" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -102,15 +102,6 @@
     <t>https://www.digikey.com/product-detail/en/nichicon/UVK2GR47MED1TD/493-12648-3-ND/4328849</t>
   </si>
   <si>
-    <t>Yageo FMP200JR-52-220R</t>
-  </si>
-  <si>
-    <t>Through Hole 220 ohm 2 watt resistor</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/FMP200JR-52-220R/220ZCT-ND/2058986</t>
-  </si>
-  <si>
     <t xml:space="preserve">TE Connectivity 640454-6 </t>
   </si>
   <si>
@@ -184,6 +175,33 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/diodes-incorporated/D4G-T/D4G-TDICT-ND/8283848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackpole Electronics RNF14FTD10K0 </t>
+  </si>
+  <si>
+    <t>Through Hole 10k ohm 1/4 watt resistor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RNF14FTD10K0/RNF14FTD10K0CT-ND/1975090</t>
+  </si>
+  <si>
+    <t>Cree Inc. C503B-ACN-CY0Z0252-030</t>
+  </si>
+  <si>
+    <t>LED AMBER CLEAR 5MM ROUND T/H</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/cree-inc/C503B-ACN-CY0Z0252-030/C503B-ACN-CY0Z0252-030CT-ND/6138527</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics CF14JT470R</t>
+  </si>
+  <si>
+    <t>Through Hole 470 ohm 1/4 watt resistor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT470R/CF14JT470RCT-ND/1830342</t>
   </si>
 </sst>
 </file>
@@ -579,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -634,11 +652,11 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:F15" si="0">_xlfn.CEILING.MATH(3*D2)</f>
+        <f t="shared" ref="E2:E16" si="0">_xlfn.CEILING.MATH(3*D2)</f>
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F12" si="1">C2*D2</f>
+        <f t="shared" ref="F2:F11" si="1">C2*D2</f>
         <v>2.65</v>
       </c>
       <c r="G2" t="s">
@@ -678,30 +696,30 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -790,10 +808,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>0.4</v>
@@ -810,18 +828,18 @@
         <v>0.4</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7">
         <v>0.11</v>
@@ -838,18 +856,18 @@
         <v>0.11</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7">
         <v>0.1</v>
@@ -866,18 +884,18 @@
         <v>0.1</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7">
         <v>0.11</v>
@@ -894,18 +912,18 @@
         <v>0.11</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>0.31</v>
@@ -922,18 +940,18 @@
         <v>3.1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7">
         <v>6.9000000000000006E-2</v>
@@ -950,18 +968,18 @@
         <v>0.69000000000000006</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>1.53</v>
@@ -973,22 +991,22 @@
         <v>3</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14:F15" si="2">C14*D14</f>
+        <f t="shared" ref="F14:F17" si="2">C14*D14</f>
         <v>1.53</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7">
         <v>0.34</v>
@@ -1008,34 +1026,89 @@
         <v>8</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17" si="3">_xlfn.CEILING.MATH(3*D17)</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="7">
-        <f>SUM(F2:F15)</f>
-        <v>46.62</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="7">
+        <f>SUM(F2:F17)</f>
+        <v>38.869999999999997</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{5C7FC4F3-706F-4CE1-805E-D3A30C1ABAF6}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{7D06814D-8DA6-411A-B94E-03E7D08AE8AB}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{1990B8ED-E572-41CB-A4A1-1363DBC0341D}"/>
-    <hyperlink ref="H9" r:id="rId6" xr:uid="{FCE19420-72F5-4136-9279-DFEC2D2B6568}"/>
-    <hyperlink ref="H10" r:id="rId7" xr:uid="{CC629338-645C-406D-BD7E-C4C9E4EF95C5}"/>
-    <hyperlink ref="H8" r:id="rId8" xr:uid="{B24CC0DF-F335-4A4B-974B-9EA891558532}"/>
-    <hyperlink ref="H12" r:id="rId9" xr:uid="{FFD98EFF-0715-44AA-9193-6E34BCA3EC93}"/>
-    <hyperlink ref="H13" r:id="rId10" xr:uid="{C3F7F823-E167-44D3-869E-E88F2B5DC7C4}"/>
-    <hyperlink ref="H14" r:id="rId11" xr:uid="{D5D585CF-FD65-4056-8C52-7969DAA3F20D}"/>
-    <hyperlink ref="H15" r:id="rId12" xr:uid="{18B5C03A-9F6D-43F1-9BD4-0A4B7BF5971E}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{7D06814D-8DA6-411A-B94E-03E7D08AE8AB}"/>
+    <hyperlink ref="H11" r:id="rId4" xr:uid="{1990B8ED-E572-41CB-A4A1-1363DBC0341D}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{FCE19420-72F5-4136-9279-DFEC2D2B6568}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{CC629338-645C-406D-BD7E-C4C9E4EF95C5}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{B24CC0DF-F335-4A4B-974B-9EA891558532}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{FFD98EFF-0715-44AA-9193-6E34BCA3EC93}"/>
+    <hyperlink ref="H13" r:id="rId9" xr:uid="{C3F7F823-E167-44D3-869E-E88F2B5DC7C4}"/>
+    <hyperlink ref="H14" r:id="rId10" xr:uid="{D5D585CF-FD65-4056-8C52-7969DAA3F20D}"/>
+    <hyperlink ref="H15" r:id="rId11" xr:uid="{18B5C03A-9F6D-43F1-9BD4-0A4B7BF5971E}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
